--- a/9/2/1/1/2/Variación anual 2010 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/2/Variación anual 2010 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Serie</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2704,13 +2707,27 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D139">
-        <v>6.3</v>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140">
+        <v>6.5</v>
+      </c>
+      <c r="C140">
+        <v>1.9</v>
+      </c>
+      <c r="D140">
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>

--- a/9/2/1/1/2/Variación anual 2010 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/2/Variación anual 2010 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Serie</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -800,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2721,13 +2724,27 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C140">
         <v>1.9</v>
       </c>
       <c r="D140">
-        <v>6.6</v>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141">
+        <v>6.4</v>
+      </c>
+      <c r="C141">
+        <v>1.6</v>
+      </c>
+      <c r="D141">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>

--- a/9/2/1/1/2/Variación anual 2010 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/2/Variación anual 2010 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Serie</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2747,6 +2750,20 @@
         <v>6.7</v>
       </c>
     </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142">
+        <v>5.7</v>
+      </c>
+      <c r="C142">
+        <v>0.4</v>
+      </c>
+      <c r="D142">
+        <v>6.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
